--- a/document/wbs.xlsx
+++ b/document/wbs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chokkint/Documents/HBuilderProjects/LBAI/document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBuilderProjects\LBAI\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D891B830-1B3B-214A-BBE1-953242DA9445}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25580" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25580" windowHeight="15540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="5" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">页面开发计划!$A$2:$G$50</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="283">
   <si>
     <t>◉  已完成  ◐  进行中  O 未开始</t>
   </si>
@@ -927,13 +926,21 @@
   </si>
   <si>
     <t>我的页面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>80%</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16">
     <font>
       <sz val="10"/>
@@ -962,7 +969,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Heiti SC Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2011,14 +2018,14 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2044,11 +2051,11 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2179,7 +2186,7 @@
         <xdr:cNvPr id="2" name="Shape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2242,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2641,7 +2648,7 @@
         <xdr:cNvPr id="4" name="Shape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,7 +2701,7 @@
         <xdr:cNvPr id="5" name="Shape 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2747,7 +2754,7 @@
         <xdr:cNvPr id="6" name="Shape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2800,7 +2807,7 @@
         <xdr:cNvPr id="7" name="Shape 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3206,7 +3213,7 @@
         <xdr:cNvPr id="8" name="Shape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3259,7 +3266,7 @@
         <xdr:cNvPr id="9" name="Shape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3312,7 +3319,7 @@
         <xdr:cNvPr id="10" name="Shape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3365,7 +3372,7 @@
         <xdr:cNvPr id="11" name="Shape 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3418,7 +3425,7 @@
         <xdr:cNvPr id="12" name="Shape 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3471,7 +3478,7 @@
         <xdr:cNvPr id="13" name="Shape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3493,7 +3500,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3571,7 +3578,7 @@
         <xdr:cNvPr id="14" name="Shape 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3593,7 +3600,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3671,7 +3678,7 @@
         <xdr:cNvPr id="15" name="Shape 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3693,7 +3700,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3771,7 +3778,7 @@
         <xdr:cNvPr id="16" name="Shape 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3824,7 +3831,7 @@
         <xdr:cNvPr id="17" name="Shape 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3910,7 +3917,7 @@
         <xdr:cNvPr id="18" name="Shape 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3932,7 +3939,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4010,7 +4017,7 @@
         <xdr:cNvPr id="19" name="Shape 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4063,7 +4070,7 @@
         <xdr:cNvPr id="20" name="Shape 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4085,7 +4092,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4163,7 +4170,7 @@
         <xdr:cNvPr id="21" name="Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4214,7 +4221,7 @@
         <xdr:cNvPr id="22" name="Shape 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4236,7 +4243,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4314,7 +4321,7 @@
         <xdr:cNvPr id="23" name="Shape 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4720,7 +4727,7 @@
         <xdr:cNvPr id="24" name="Shape 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4773,7 +4780,7 @@
         <xdr:cNvPr id="25" name="Shape 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4829,7 +4836,7 @@
         <xdr:cNvPr id="26" name="Shape 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5235,7 +5242,7 @@
         <xdr:cNvPr id="27" name="Shape 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6347,22 +6354,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17855395-6870-0B44-958D-426F8C076A2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.296875" hidden="1" customWidth="1"/>
     <col min="6" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -6387,7 +6394,7 @@
       <c r="K1" s="90"/>
       <c r="L1" s="91">
         <f ca="1">TODAY()</f>
-        <v>42138</v>
+        <v>42140</v>
       </c>
       <c r="M1" s="88"/>
       <c r="N1" s="88"/>
@@ -6399,11 +6406,11 @@
       <c r="A2" s="94" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="128" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
       <c r="E2" s="129" t="s">
         <v>243</v>
       </c>
@@ -6416,25 +6423,25 @@
       <c r="J2" s="129" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="137" t="s">
+      <c r="K2" s="126" t="s">
         <v>246</v>
       </c>
-      <c r="L2" s="137" t="s">
+      <c r="L2" s="126" t="s">
         <v>247</v>
       </c>
-      <c r="M2" s="126" t="s">
+      <c r="M2" s="128" t="s">
         <v>248</v>
       </c>
-      <c r="N2" s="126" t="s">
+      <c r="N2" s="128" t="s">
         <v>249</v>
       </c>
-      <c r="O2" s="127" t="s">
+      <c r="O2" s="137" t="s">
         <v>250</v>
       </c>
-      <c r="P2" s="127" t="s">
+      <c r="P2" s="137" t="s">
         <v>251</v>
       </c>
-      <c r="Q2" s="128" t="s">
+      <c r="Q2" s="138" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6457,13 +6464,13 @@
       <c r="H3" s="135"/>
       <c r="I3" s="136"/>
       <c r="J3" s="130"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="128"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="138"/>
     </row>
     <row r="4" spans="1:17" ht="14">
       <c r="A4" s="98">
@@ -7368,17 +7375,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7386,7 +7393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7396,16 +7403,16 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.296875" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.796875" style="1" customWidth="1"/>
     <col min="7" max="11" width="6.5" style="1" customWidth="1"/>
-    <col min="12" max="256" width="16.33203125" style="1" customWidth="1"/>
+    <col min="12" max="256" width="16.296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31" customHeight="1">
@@ -12409,27 +12416,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IX53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.296875" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="61" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" style="61" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="61" customWidth="1"/>
     <col min="3" max="3" width="24" style="61" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="61" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="60" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="60" customWidth="1"/>
-    <col min="7" max="7" width="34.33203125" style="61" customWidth="1"/>
-    <col min="8" max="258" width="16.33203125" style="61" customWidth="1"/>
-    <col min="259" max="16384" width="16.33203125" style="62"/>
+    <col min="4" max="4" width="9.296875" style="61" customWidth="1"/>
+    <col min="5" max="5" width="22.296875" style="60" customWidth="1"/>
+    <col min="6" max="6" width="21.296875" style="60" customWidth="1"/>
+    <col min="7" max="7" width="34.296875" style="61" customWidth="1"/>
+    <col min="8" max="258" width="16.296875" style="61" customWidth="1"/>
+    <col min="259" max="16384" width="16.296875" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="31" customHeight="1">
@@ -12731,7 +12738,9 @@
       <c r="E3" s="85" t="s">
         <v>236</v>
       </c>
-      <c r="F3" s="56"/>
+      <c r="F3" s="56" t="s">
+        <v>281</v>
+      </c>
       <c r="G3" s="65"/>
       <c r="H3" s="86" t="s">
         <v>237</v>
@@ -12962,7 +12971,9 @@
       <c r="E15" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="F15" s="57"/>
+      <c r="F15" s="57" t="s">
+        <v>282</v>
+      </c>
       <c r="G15" s="68"/>
       <c r="H15" s="86" t="s">
         <v>237</v>
@@ -13210,7 +13221,9 @@
         <v>67</v>
       </c>
       <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
+      <c r="F31" s="57" t="s">
+        <v>281</v>
+      </c>
       <c r="G31" s="67" t="s">
         <v>109</v>
       </c>
@@ -13225,7 +13238,9 @@
         <v>15</v>
       </c>
       <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
+      <c r="F32" s="57" t="s">
+        <v>281</v>
+      </c>
       <c r="G32" s="68"/>
       <c r="H32" s="86" t="s">
         <v>237</v>
@@ -13241,7 +13256,9 @@
         <v>15</v>
       </c>
       <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
+      <c r="F33" s="57" t="s">
+        <v>281</v>
+      </c>
       <c r="G33" s="67" t="s">
         <v>112</v>
       </c>
@@ -13515,7 +13532,7 @@
       <c r="G53" s="73"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G50" xr:uid="{22B84A17-E541-0848-A29C-B95E3C47ECDF}"/>
+  <autoFilter ref="A2:G50"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
@@ -13529,15 +13546,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV119"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.296875" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="19" width="7.6640625" style="23" customWidth="1"/>
-    <col min="20" max="256" width="16.33203125" style="23" customWidth="1"/>
+    <col min="1" max="19" width="7.69921875" style="23" customWidth="1"/>
+    <col min="20" max="256" width="16.296875" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19.75" customHeight="1">
@@ -16306,10 +16323,10 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup scale="64" orientation="portrait"/>
+  <pageSetup scale="64" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/document/wbs.xlsx
+++ b/document/wbs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBuilderProjects\LBAI\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chokkint/Documents/HBuilderProjects/LBAI/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEAEA01-E4E5-FB4A-A8B6-B787DCC984B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25580" windowHeight="15540" activeTab="2"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25580" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="5" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">页面开发计划!$A$2:$G$50</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="286">
   <si>
     <t>◉  已完成  ◐  进行中  O 未开始</t>
   </si>
@@ -934,13 +935,25 @@
   </si>
   <si>
     <t>80%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>40%</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
       <sz val="10"/>
@@ -957,6 +970,8 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Heiti SC Light"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1639,7 +1654,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2018,13 +2033,19 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2051,12 +2072,6 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2080,6 +2095,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2186,7 +2210,7 @@
         <xdr:cNvPr id="2" name="Shape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2266,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2648,7 +2672,7 @@
         <xdr:cNvPr id="4" name="Shape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2701,7 +2725,7 @@
         <xdr:cNvPr id="5" name="Shape 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,7 +2778,7 @@
         <xdr:cNvPr id="6" name="Shape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2807,7 +2831,7 @@
         <xdr:cNvPr id="7" name="Shape 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3213,7 +3237,7 @@
         <xdr:cNvPr id="8" name="Shape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3266,7 +3290,7 @@
         <xdr:cNvPr id="9" name="Shape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3319,7 +3343,7 @@
         <xdr:cNvPr id="10" name="Shape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3372,7 +3396,7 @@
         <xdr:cNvPr id="11" name="Shape 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3425,7 +3449,7 @@
         <xdr:cNvPr id="12" name="Shape 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3478,7 +3502,7 @@
         <xdr:cNvPr id="13" name="Shape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3500,7 +3524,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3578,7 +3602,7 @@
         <xdr:cNvPr id="14" name="Shape 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3600,7 +3624,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3678,7 +3702,7 @@
         <xdr:cNvPr id="15" name="Shape 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3700,7 +3724,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3778,7 +3802,7 @@
         <xdr:cNvPr id="16" name="Shape 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3831,7 +3855,7 @@
         <xdr:cNvPr id="17" name="Shape 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3917,7 +3941,7 @@
         <xdr:cNvPr id="18" name="Shape 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3939,7 +3963,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4017,7 +4041,7 @@
         <xdr:cNvPr id="19" name="Shape 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4070,7 +4094,7 @@
         <xdr:cNvPr id="20" name="Shape 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4092,7 +4116,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4170,7 +4194,7 @@
         <xdr:cNvPr id="21" name="Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4221,7 +4245,7 @@
         <xdr:cNvPr id="22" name="Shape 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4243,7 +4267,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4321,7 +4345,7 @@
         <xdr:cNvPr id="23" name="Shape 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4727,7 +4751,7 @@
         <xdr:cNvPr id="24" name="Shape 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4780,7 +4804,7 @@
         <xdr:cNvPr id="25" name="Shape 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4836,7 +4860,7 @@
         <xdr:cNvPr id="26" name="Shape 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5242,7 +5266,7 @@
         <xdr:cNvPr id="27" name="Shape 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6354,22 +6378,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.296875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" hidden="1" customWidth="1"/>
     <col min="6" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -6394,7 +6418,7 @@
       <c r="K1" s="90"/>
       <c r="L1" s="91">
         <f ca="1">TODAY()</f>
-        <v>42140</v>
+        <v>42143</v>
       </c>
       <c r="M1" s="88"/>
       <c r="N1" s="88"/>
@@ -6406,42 +6430,42 @@
       <c r="A2" s="94" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="126" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="s">
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="133" t="s">
         <v>244</v>
       </c>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="129" t="s">
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="126" t="s">
+      <c r="K2" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="L2" s="126" t="s">
+      <c r="L2" s="129" t="s">
         <v>247</v>
       </c>
-      <c r="M2" s="128" t="s">
+      <c r="M2" s="126" t="s">
         <v>248</v>
       </c>
-      <c r="N2" s="128" t="s">
+      <c r="N2" s="126" t="s">
         <v>249</v>
       </c>
-      <c r="O2" s="137" t="s">
+      <c r="O2" s="127" t="s">
         <v>250</v>
       </c>
-      <c r="P2" s="137" t="s">
+      <c r="P2" s="127" t="s">
         <v>251</v>
       </c>
-      <c r="Q2" s="138" t="s">
+      <c r="Q2" s="128" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6458,19 +6482,19 @@
       <c r="D3" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="137"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="138"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="128"/>
     </row>
     <row r="4" spans="1:17" ht="14">
       <c r="A4" s="98">
@@ -7375,17 +7399,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7393,7 +7417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7403,16 +7427,16 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.296875" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" style="1" customWidth="1"/>
     <col min="7" max="11" width="6.5" style="1" customWidth="1"/>
-    <col min="12" max="256" width="16.296875" style="1" customWidth="1"/>
+    <col min="12" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31" customHeight="1">
@@ -12416,27 +12440,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IX53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.296875" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.19921875" style="61" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" style="61" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" style="61" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="61" customWidth="1"/>
     <col min="3" max="3" width="24" style="61" customWidth="1"/>
-    <col min="4" max="4" width="9.296875" style="61" customWidth="1"/>
-    <col min="5" max="5" width="22.296875" style="60" customWidth="1"/>
-    <col min="6" max="6" width="21.296875" style="60" customWidth="1"/>
-    <col min="7" max="7" width="34.296875" style="61" customWidth="1"/>
-    <col min="8" max="258" width="16.296875" style="61" customWidth="1"/>
-    <col min="259" max="16384" width="16.296875" style="62"/>
+    <col min="4" max="4" width="9.33203125" style="61" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="60" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="60" customWidth="1"/>
+    <col min="7" max="7" width="34.33203125" style="61" customWidth="1"/>
+    <col min="8" max="258" width="16.33203125" style="61" customWidth="1"/>
+    <col min="259" max="16384" width="16.33203125" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="31" customHeight="1">
@@ -12834,7 +12858,9 @@
       <c r="E8" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="F8" s="57"/>
+      <c r="F8" s="57" t="s">
+        <v>282</v>
+      </c>
       <c r="G8" s="68"/>
       <c r="H8" s="86" t="s">
         <v>237</v>
@@ -12852,7 +12878,7 @@
       <c r="E9" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="F9" s="57"/>
+      <c r="F9" s="147"/>
       <c r="G9" s="68"/>
       <c r="H9" s="86" t="s">
         <v>237</v>
@@ -12885,7 +12911,9 @@
       <c r="E11" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="F11" s="57"/>
+      <c r="F11" s="57" t="s">
+        <v>283</v>
+      </c>
       <c r="G11" s="67" t="s">
         <v>82</v>
       </c>
@@ -12899,13 +12927,15 @@
       <c r="C12" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="149" t="s">
         <v>234</v>
       </c>
-      <c r="F12" s="57"/>
+      <c r="F12" s="149" t="s">
+        <v>284</v>
+      </c>
       <c r="G12" s="67" t="s">
         <v>84</v>
       </c>
@@ -12929,7 +12959,9 @@
       <c r="E13" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="F13" s="57"/>
+      <c r="F13" s="57" t="s">
+        <v>281</v>
+      </c>
       <c r="G13" s="67" t="s">
         <v>86</v>
       </c>
@@ -12949,7 +12981,9 @@
       <c r="E14" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="F14" s="57"/>
+      <c r="F14" s="57" t="s">
+        <v>285</v>
+      </c>
       <c r="G14" s="68"/>
       <c r="H14" s="86" t="s">
         <v>237</v>
@@ -12972,7 +13006,7 @@
         <v>234</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G15" s="68"/>
       <c r="H15" s="86" t="s">
@@ -12991,7 +13025,9 @@
       <c r="E16" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="F16" s="57"/>
+      <c r="F16" s="57" t="s">
+        <v>281</v>
+      </c>
       <c r="G16" s="67" t="s">
         <v>90</v>
       </c>
@@ -13011,7 +13047,9 @@
       <c r="E17" s="82" t="s">
         <v>234</v>
       </c>
-      <c r="F17" s="57"/>
+      <c r="F17" s="57" t="s">
+        <v>281</v>
+      </c>
       <c r="G17" s="68"/>
     </row>
     <row r="18" spans="1:8" ht="25.25" customHeight="1">
@@ -13275,7 +13313,9 @@
       <c r="D34" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="57"/>
+      <c r="E34" s="57" t="s">
+        <v>234</v>
+      </c>
       <c r="F34" s="57"/>
       <c r="G34" s="68"/>
       <c r="H34" s="86" t="s">
@@ -13532,7 +13572,7 @@
       <c r="G53" s="73"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G50"/>
+  <autoFilter ref="A2:G50" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
@@ -13546,15 +13586,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IV119"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.296875" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="19" width="7.69921875" style="23" customWidth="1"/>
-    <col min="20" max="256" width="16.296875" style="23" customWidth="1"/>
+    <col min="1" max="19" width="7.6640625" style="23" customWidth="1"/>
+    <col min="20" max="256" width="16.33203125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19.75" customHeight="1">
